--- a/data/trans_orig/P59-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P59-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>30912</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21439</v>
+        <v>22375</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42650</v>
+        <v>44105</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05291817654576633</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03670238803350502</v>
+        <v>0.03830478124634504</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07301321782840041</v>
+        <v>0.07550381312579749</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>160</v>
@@ -765,19 +765,19 @@
         <v>168350</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>147195</v>
+        <v>147737</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>193808</v>
+        <v>195766</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1825265724206828</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1595898678539963</v>
+        <v>0.160177987528208</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2101284878494108</v>
+        <v>0.212250460127501</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>193</v>
@@ -786,19 +786,19 @@
         <v>199262</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>172280</v>
+        <v>173726</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>225876</v>
+        <v>227001</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1322704089657358</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1143597093075755</v>
+        <v>0.1153193382167392</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1499367216667642</v>
+        <v>0.1506835199024852</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>11500</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6143</v>
+        <v>6297</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19306</v>
+        <v>20661</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0196873223701714</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01051696738752518</v>
+        <v>0.01078060281841028</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03305056967951801</v>
+        <v>0.03537008699637649</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>25</v>
@@ -836,19 +836,19 @@
         <v>28415</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18711</v>
+        <v>18888</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>42286</v>
+        <v>42375</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03080766097826765</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02028695167187084</v>
+        <v>0.02047844853226914</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04584686474210782</v>
+        <v>0.04594308191945077</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>36</v>
@@ -857,19 +857,19 @@
         <v>39915</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>28045</v>
+        <v>27873</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>54843</v>
+        <v>54214</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02649570610072871</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01861599164453973</v>
+        <v>0.01850213730056723</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03640472646877015</v>
+        <v>0.03598750071656002</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>17309</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10177</v>
+        <v>9544</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27230</v>
+        <v>26987</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02963089920926096</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01742289428400782</v>
+        <v>0.01633853771581018</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04661590756461887</v>
+        <v>0.04619881316943955</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>46</v>
@@ -907,19 +907,19 @@
         <v>48458</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>35171</v>
+        <v>35548</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>63372</v>
+        <v>63985</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05253878070942191</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03813237755697576</v>
+        <v>0.03854154923519369</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06870790560659706</v>
+        <v>0.0693726204302311</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>62</v>
@@ -928,19 +928,19 @@
         <v>65767</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>50744</v>
+        <v>50823</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>84962</v>
+        <v>85419</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04365615987836313</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03368403705736199</v>
+        <v>0.03373636652959082</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05639782477259898</v>
+        <v>0.05670126719539951</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>197091</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>175000</v>
+        <v>174438</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>219835</v>
+        <v>220085</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3374023708147613</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2995855158372411</v>
+        <v>0.298622596208862</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3763387757442359</v>
+        <v>0.3767664680467543</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>200</v>
@@ -978,19 +978,19 @@
         <v>205834</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>181853</v>
+        <v>181901</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>232771</v>
+        <v>232599</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2231664586308127</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1971667108417411</v>
+        <v>0.1972179742883191</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2523725011071029</v>
+        <v>0.2521853064610575</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>390</v>
@@ -999,19 +999,19 @@
         <v>402924</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>369097</v>
+        <v>363936</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>434759</v>
+        <v>437533</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2674618812875527</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2450070317526873</v>
+        <v>0.2415810124744276</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2885936161522525</v>
+        <v>0.2904349713053437</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>327330</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>302527</v>
+        <v>302190</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>350126</v>
+        <v>350875</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.56036123106004</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5179003752045381</v>
+        <v>0.517323774181375</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5993864074673934</v>
+        <v>0.6006679050755235</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>454</v>
@@ -1049,19 +1049,19 @@
         <v>471276</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>439038</v>
+        <v>442285</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>502369</v>
+        <v>502043</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5109605272608149</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4760082124482221</v>
+        <v>0.4795287325644415</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5446715579276162</v>
+        <v>0.5443183111929704</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>778</v>
@@ -1070,19 +1070,19 @@
         <v>798606</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>761627</v>
+        <v>762142</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>841733</v>
+        <v>835923</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5301158437676197</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5055695193970065</v>
+        <v>0.5059112608798008</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5587438521048761</v>
+        <v>0.5548873710738632</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>30915</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22673</v>
+        <v>21285</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43770</v>
+        <v>42806</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02868115680102909</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02103482004250712</v>
+        <v>0.01974673432925442</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04060689897939714</v>
+        <v>0.03971242206667945</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>113</v>
@@ -1195,19 +1195,19 @@
         <v>120532</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>100282</v>
+        <v>100165</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>142388</v>
+        <v>144390</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1139745789770212</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09482606889285637</v>
+        <v>0.0947151336967441</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1346412404321408</v>
+        <v>0.1365343524897349</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>146</v>
@@ -1216,19 +1216,19 @@
         <v>151448</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>128596</v>
+        <v>128010</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>176604</v>
+        <v>177791</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07092133764530749</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06022019378691432</v>
+        <v>0.05994576851451916</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08270192133712848</v>
+        <v>0.08325785868641387</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>8100</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3557</v>
+        <v>3490</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15641</v>
+        <v>16298</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.00751483056612188</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003299976584280307</v>
+        <v>0.003237453887513848</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01451055712911976</v>
+        <v>0.01512007945309521</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>17</v>
@@ -1266,19 +1266,19 @@
         <v>18447</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>11156</v>
+        <v>11396</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>30620</v>
+        <v>28870</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01744315918131006</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01054863662021174</v>
+        <v>0.01077585586264323</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0289540429587818</v>
+        <v>0.02729895463438474</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>25</v>
@@ -1287,19 +1287,19 @@
         <v>26547</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>17383</v>
+        <v>17092</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>40273</v>
+        <v>39267</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01243167392271328</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.008140264557059093</v>
+        <v>0.008004151502274919</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.018859282338359</v>
+        <v>0.01838811797751792</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>18089</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10039</v>
+        <v>9637</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>29594</v>
+        <v>30123</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01678206121972049</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.009313685335595026</v>
+        <v>0.008940689968666985</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02745501682922934</v>
+        <v>0.02794637423103376</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>30</v>
@@ -1337,19 +1337,19 @@
         <v>32885</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>23412</v>
+        <v>21664</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>45718</v>
+        <v>45889</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03109618514547906</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02213819362574981</v>
+        <v>0.02048555731429973</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04323052815873289</v>
+        <v>0.0433918852450467</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>45</v>
@@ -1358,19 +1358,19 @@
         <v>50975</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>36818</v>
+        <v>36510</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>67877</v>
+        <v>67636</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02387089841051669</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01724128270095741</v>
+        <v>0.01709737283756196</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03178623835464842</v>
+        <v>0.03167336910278747</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>334461</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>305282</v>
+        <v>303455</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>365770</v>
+        <v>365126</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3102915607374553</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2832207841436618</v>
+        <v>0.2815256685566755</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3393377369225018</v>
+        <v>0.3387399646709919</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>219</v>
@@ -1408,19 +1408,19 @@
         <v>218737</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>195691</v>
+        <v>192677</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>245154</v>
+        <v>246093</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2068362741775632</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1850441928968378</v>
+        <v>0.1821940614872731</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.231816088064268</v>
+        <v>0.2327039592541267</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>549</v>
@@ -1429,19 +1429,19 @@
         <v>553199</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>516416</v>
+        <v>514887</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>596267</v>
+        <v>593302</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2590570117874835</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2418318715793322</v>
+        <v>0.2411160248955792</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2792255229361293</v>
+        <v>0.2778370363763252</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>686328</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>654055</v>
+        <v>655180</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>717081</v>
+        <v>718605</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6367303906756732</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6067898327626494</v>
+        <v>0.6078335543991128</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.665261520628487</v>
+        <v>0.6666751436084054</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>649</v>
@@ -1479,19 +1479,19 @@
         <v>666936</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>636713</v>
+        <v>636267</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>699096</v>
+        <v>702336</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6306498025186265</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6020713588179448</v>
+        <v>0.6016495410951191</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6610596633799338</v>
+        <v>0.6641236082198774</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1318</v>
@@ -1500,19 +1500,19 @@
         <v>1353264</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1308304</v>
+        <v>1303470</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1397903</v>
+        <v>1394003</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6337190782339791</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.612664889236842</v>
+        <v>0.6104010270480756</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6546228244491612</v>
+        <v>0.6527965701576526</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>29864</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20476</v>
+        <v>19911</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42357</v>
+        <v>42350</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02662609885522579</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01825602236117978</v>
+        <v>0.01775284417451588</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03776519308089441</v>
+        <v>0.03775912543884585</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>82</v>
@@ -1625,19 +1625,19 @@
         <v>87113</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>70875</v>
+        <v>69883</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>108060</v>
+        <v>105267</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08764454098402515</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07130692471235336</v>
+        <v>0.07030930244634205</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1087191387547218</v>
+        <v>0.1059091082463841</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>110</v>
@@ -1646,19 +1646,19 @@
         <v>116977</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>98077</v>
+        <v>97191</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>142414</v>
+        <v>140997</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05529434511337218</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04636016282407699</v>
+        <v>0.04594139673907381</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06731813293626658</v>
+        <v>0.06664834978518183</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>11414</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6057</v>
+        <v>6529</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>21761</v>
+        <v>21837</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01017663180456848</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.005400437841403211</v>
+        <v>0.005821001694053716</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01940163195049465</v>
+        <v>0.01946958945392925</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>13</v>
@@ -1696,19 +1696,19 @@
         <v>13195</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7167</v>
+        <v>7171</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23182</v>
+        <v>22852</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01327581257024719</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.007211121713466931</v>
+        <v>0.007214934246288541</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02332299803856658</v>
+        <v>0.02299102900523218</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -1717,19 +1717,19 @@
         <v>24609</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16598</v>
+        <v>16205</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>36425</v>
+        <v>36585</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01163271744506131</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.007845866821173464</v>
+        <v>0.007660030418678684</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01721783250093825</v>
+        <v>0.01729330251527675</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>12551</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6081</v>
+        <v>5685</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>23408</v>
+        <v>23768</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01119064789116928</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.00542175736688316</v>
+        <v>0.005069051543128785</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02087017997306611</v>
+        <v>0.02119127770223246</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>9</v>
@@ -1767,19 +1767,19 @@
         <v>9342</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4328</v>
+        <v>4853</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17137</v>
+        <v>17239</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.00939892307726771</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.004354578791097952</v>
+        <v>0.00488245591135746</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01724110585001238</v>
+        <v>0.01734405449211071</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>20</v>
@@ -1788,19 +1788,19 @@
         <v>21893</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>13905</v>
+        <v>14006</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>32842</v>
+        <v>37392</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0103488432432673</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.006572942357753625</v>
+        <v>0.006620431967453332</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01552419301212035</v>
+        <v>0.01767475359366614</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>392481</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>359537</v>
+        <v>361931</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>423058</v>
+        <v>423993</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3499312257023162</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3205586233113906</v>
+        <v>0.3226931575907779</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3771936241232714</v>
+        <v>0.3780275690345014</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>294</v>
@@ -1838,19 +1838,19 @@
         <v>287336</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>259391</v>
+        <v>260183</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>317324</v>
+        <v>318208</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2890878610675766</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2609721645733558</v>
+        <v>0.2617696299430866</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3192590686156521</v>
+        <v>0.3201485338023113</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>683</v>
@@ -1859,19 +1859,19 @@
         <v>679817</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>638226</v>
+        <v>635491</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>727015</v>
+        <v>723526</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3213452359643112</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3016855252834454</v>
+        <v>0.3003926008258953</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3436556605302158</v>
+        <v>0.3420061992498384</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>675284</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>644054</v>
+        <v>640098</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>711155</v>
+        <v>707330</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6020753957467202</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5742306011550445</v>
+        <v>0.5707039755988295</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6340577303318593</v>
+        <v>0.6306469251749186</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>584</v>
@@ -1909,19 +1909,19 @@
         <v>596953</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>567391</v>
+        <v>568357</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>628077</v>
+        <v>628005</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6005928623008834</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5708498527665916</v>
+        <v>0.5718220221821491</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6319066552429153</v>
+        <v>0.6318338826225811</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1248</v>
@@ -1930,19 +1930,19 @@
         <v>1272237</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1227181</v>
+        <v>1220538</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1320365</v>
+        <v>1315233</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.601378858233988</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5800810343045421</v>
+        <v>0.5769410514901506</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6241286543808173</v>
+        <v>0.6217026975651958</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>16165</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9966</v>
+        <v>10042</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25484</v>
+        <v>25345</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0361478989439491</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02228524793850601</v>
+        <v>0.02245520127036995</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05698592102384309</v>
+        <v>0.05667470955639452</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -2055,19 +2055,19 @@
         <v>18470</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11201</v>
+        <v>11461</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>28874</v>
+        <v>27890</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05413975036623907</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03283353850461097</v>
+        <v>0.03359548010472754</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08463601873760958</v>
+        <v>0.08175195286740111</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>35</v>
@@ -2076,19 +2076,19 @@
         <v>34636</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>24903</v>
+        <v>24288</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>46583</v>
+        <v>47847</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04393378846927458</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03158868111450516</v>
+        <v>0.03080849623409211</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05908860201409925</v>
+        <v>0.06069200854010197</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>7454</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2967</v>
+        <v>2899</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16588</v>
+        <v>15875</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01666729876738964</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.006635645243581938</v>
+        <v>0.006483385694387388</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03709257788591299</v>
+        <v>0.03549878743493576</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -2126,19 +2126,19 @@
         <v>4119</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>9666</v>
+        <v>9951</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01207375977253251</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.002986440027785687</v>
+        <v>0.00297948724904763</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02833378079521144</v>
+        <v>0.0291691119618907</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>10</v>
@@ -2147,19 +2147,19 @@
         <v>11573</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6225</v>
+        <v>5862</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>20488</v>
+        <v>21203</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01467946625895065</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.007895637128640555</v>
+        <v>0.007435236726090521</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0259888083155863</v>
+        <v>0.02689574748158156</v>
       </c>
     </row>
     <row r="24">
@@ -2179,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7715</v>
+        <v>7029</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.00455316972134495</v>
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01725192752970054</v>
+        <v>0.01571791893629001</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -2197,19 +2197,19 @@
         <v>4065</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1141</v>
+        <v>982</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9688</v>
+        <v>9657</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01191471055955377</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.003344517001825563</v>
+        <v>0.002879065829458391</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02839648876423782</v>
+        <v>0.0283060390044557</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -2218,19 +2218,19 @@
         <v>6101</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2191</v>
+        <v>2064</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>12554</v>
+        <v>12444</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.007738842076967967</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.002779122619819711</v>
+        <v>0.002618399107006857</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01592419112107894</v>
+        <v>0.01578453612983382</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>168878</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>147807</v>
+        <v>145315</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>191706</v>
+        <v>188061</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3776340926106309</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.33051628352597</v>
+        <v>0.3249450678078754</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4286798657776892</v>
+        <v>0.420531062232134</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>119</v>
@@ -2268,19 +2268,19 @@
         <v>115923</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>99990</v>
+        <v>98098</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>133612</v>
+        <v>131733</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3397918497322746</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2930913576715099</v>
+        <v>0.2875450706109676</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3916436944608007</v>
+        <v>0.3861347903159475</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>283</v>
@@ -2289,19 +2289,19 @@
         <v>284801</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>258272</v>
+        <v>254854</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>310716</v>
+        <v>310202</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3612580390558313</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3276077886723011</v>
+        <v>0.3232723056953055</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.394130886785318</v>
+        <v>0.3934790209796671</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>252667</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>228662</v>
+        <v>232870</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>273182</v>
+        <v>275448</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5649975399566854</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5113183286916515</v>
+        <v>0.5207285527920422</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6108724597548587</v>
+        <v>0.6159388207986093</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>194</v>
@@ -2339,19 +2339,19 @@
         <v>198581</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>179610</v>
+        <v>179362</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>216157</v>
+        <v>216354</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5820799295694001</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5264726776573321</v>
+        <v>0.5257438811425369</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6335972448280259</v>
+        <v>0.6341751885220612</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>441</v>
@@ -2360,19 +2360,19 @@
         <v>451248</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>421121</v>
+        <v>423523</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>478575</v>
+        <v>478423</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5723898641389755</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5341743688522275</v>
+        <v>0.5372218210349013</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6070522984015371</v>
+        <v>0.6068601328596264</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>107856</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>86981</v>
+        <v>88471</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>128035</v>
+        <v>129208</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03338336416025419</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0269222223583475</v>
+        <v>0.02738349720174542</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03962919730436042</v>
+        <v>0.03999208722744194</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>373</v>
@@ -2485,19 +2485,19 @@
         <v>394466</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>356694</v>
+        <v>354624</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>430409</v>
+        <v>430749</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1189954911516644</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1076010800627962</v>
+        <v>0.1069766923030847</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1298380174678476</v>
+        <v>0.1299407245108168</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>484</v>
@@ -2506,19 +2506,19 @@
         <v>502322</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>458550</v>
+        <v>458110</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>547552</v>
+        <v>544824</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07673965572670059</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07005256873753275</v>
+        <v>0.06998535347242922</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08364945065401352</v>
+        <v>0.08323262714570816</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>38468</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>27554</v>
+        <v>26716</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>52501</v>
+        <v>52957</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01190655065441659</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.008528462707982335</v>
+        <v>0.008268936025967975</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01624996092358932</v>
+        <v>0.01639123645797391</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>59</v>
@@ -2556,19 +2556,19 @@
         <v>64176</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>49868</v>
+        <v>50023</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>82726</v>
+        <v>82030</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01935950218594371</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01504320997299348</v>
+        <v>0.01509001113340828</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0249551968167614</v>
+        <v>0.0247454092045648</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>95</v>
@@ -2577,19 +2577,19 @@
         <v>102644</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>81701</v>
+        <v>83355</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>126488</v>
+        <v>126377</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01568092644657398</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01248148002624397</v>
+        <v>0.01273414585384246</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01932350351956478</v>
+        <v>0.01930656719141927</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>49985</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>35428</v>
+        <v>36883</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>67215</v>
+        <v>66934</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01547140238849168</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01096550988362849</v>
+        <v>0.01141606786988983</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02080415640958356</v>
+        <v>0.02071723887452456</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>89</v>
@@ -2627,19 +2627,19 @@
         <v>94750</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>74718</v>
+        <v>76360</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>113507</v>
+        <v>116894</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02858259588359176</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02253968741547004</v>
+        <v>0.02303476694793122</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03424063878800597</v>
+        <v>0.03526244278985736</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>133</v>
@@ -2648,19 +2648,19 @@
         <v>144736</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>122491</v>
+        <v>122203</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>172087</v>
+        <v>171333</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02211126461285493</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01871293692668751</v>
+        <v>0.01866892894319827</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02628968147901365</v>
+        <v>0.02617443849554314</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>1092911</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1042155</v>
+        <v>1037049</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1150970</v>
+        <v>1144920</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3382756224506922</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3225658891055981</v>
+        <v>0.3209854974853406</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3562461797026633</v>
+        <v>0.3543733726249328</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>832</v>
@@ -2698,19 +2698,19 @@
         <v>827830</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>782987</v>
+        <v>781110</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>875601</v>
+        <v>876435</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.249724720532138</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2361972494293036</v>
+        <v>0.2356312444789552</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2641353843396076</v>
+        <v>0.2643869520429086</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1905</v>
@@ -2719,19 +2719,19 @@
         <v>1920740</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1846699</v>
+        <v>1849089</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1997355</v>
+        <v>1991484</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2934310559509271</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2821197009643419</v>
+        <v>0.2824848697557225</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3051353941972131</v>
+        <v>0.3042385902293587</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>1941609</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1883421</v>
+        <v>1888940</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1995807</v>
+        <v>1995934</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6009630603461453</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5829529888116944</v>
+        <v>0.5846610011568059</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6177383067421691</v>
+        <v>0.6177776415536984</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1881</v>
@@ -2769,19 +2769,19 @@
         <v>1933746</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1879481</v>
+        <v>1878162</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1988510</v>
+        <v>1985204</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5833376902466622</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5669679934410186</v>
+        <v>0.5665700688794442</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5998577899290874</v>
+        <v>0.5988603910918107</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3785</v>
@@ -2790,19 +2790,19 @@
         <v>3875355</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3797734</v>
+        <v>3786894</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3952752</v>
+        <v>3950906</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5920370972629434</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.580178852055166</v>
+        <v>0.5785228919104515</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6038609662028568</v>
+        <v>0.6035789645568551</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>23326</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15005</v>
+        <v>14909</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34180</v>
+        <v>36059</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02240123204782021</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01441025027805466</v>
+        <v>0.01431796766429364</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03282537947331354</v>
+        <v>0.03463028389864258</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>134</v>
@@ -3155,19 +3155,19 @@
         <v>145017</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>122312</v>
+        <v>122502</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>171361</v>
+        <v>169171</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1295964234287831</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1093060240237458</v>
+        <v>0.1094752150799367</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1531392734981315</v>
+        <v>0.151182024064138</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>155</v>
@@ -3176,19 +3176,19 @@
         <v>168343</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>144725</v>
+        <v>145477</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>195602</v>
+        <v>197189</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07792719000063295</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06699452384959544</v>
+        <v>0.06734267137410892</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09054596500225237</v>
+        <v>0.09128059227173078</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>27928</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18372</v>
+        <v>18463</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>40045</v>
+        <v>40893</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02682106450406976</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01764361145372974</v>
+        <v>0.01773129801055908</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03845755677627347</v>
+        <v>0.03927260408075883</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>48</v>
@@ -3226,19 +3226,19 @@
         <v>50453</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>37882</v>
+        <v>37711</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>66094</v>
+        <v>65130</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04508797422818967</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.033854112075522</v>
+        <v>0.03370063848046279</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05906618347786821</v>
+        <v>0.05820470319497863</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>74</v>
@@ -3247,19 +3247,19 @@
         <v>78381</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>62318</v>
+        <v>62841</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>97528</v>
+        <v>96710</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03628312757054272</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02884728633628095</v>
+        <v>0.02908971770689234</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04514652593297858</v>
+        <v>0.04476787014154836</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>26483</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17140</v>
+        <v>17918</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>37890</v>
+        <v>38819</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02543373895617644</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01646078386789885</v>
+        <v>0.01720768293053961</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03638826462001126</v>
+        <v>0.03728089435735644</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>40</v>
@@ -3297,19 +3297,19 @@
         <v>45424</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>32511</v>
+        <v>33151</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>61638</v>
+        <v>62833</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04059397068365162</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02905415078642997</v>
+        <v>0.02962613970424912</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05508398655351484</v>
+        <v>0.05615154358002563</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>65</v>
@@ -3318,19 +3318,19 @@
         <v>71908</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>57180</v>
+        <v>55656</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>91826</v>
+        <v>93417</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03328657618338979</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02646899049586261</v>
+        <v>0.02576359386408413</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0425069533184028</v>
+        <v>0.04324347872888139</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>351570</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>323432</v>
+        <v>323168</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>384289</v>
+        <v>386004</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3376366878700689</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3106134593958559</v>
+        <v>0.3103605902387184</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3690594528313672</v>
+        <v>0.3707060756431208</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>235</v>
@@ -3368,19 +3368,19 @@
         <v>257196</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>228705</v>
+        <v>228572</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>288689</v>
+        <v>287341</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2298464693872453</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2043852511957976</v>
+        <v>0.2042667287196132</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2579909253010132</v>
+        <v>0.2567859251986404</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>573</v>
@@ -3389,19 +3389,19 @@
         <v>608766</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>566726</v>
+        <v>566240</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>651312</v>
+        <v>651063</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2818025122685625</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2623422562869397</v>
+        <v>0.2621172136884057</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3014975307824349</v>
+        <v>0.3013822056740488</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>611960</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>580696</v>
+        <v>578997</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>645063</v>
+        <v>641626</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5877072766218647</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5576822796194828</v>
+        <v>0.5560505797901272</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6194978527969542</v>
+        <v>0.6161975675635022</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>573</v>
@@ -3439,19 +3439,19 @@
         <v>620899</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>584702</v>
+        <v>583188</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>653202</v>
+        <v>652681</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5548751622721304</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5225269970970273</v>
+        <v>0.5211742717803809</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5837425640516318</v>
+        <v>0.5832778262988445</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1138</v>
@@ -3460,19 +3460,19 @@
         <v>1232859</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1186022</v>
+        <v>1184692</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1279517</v>
+        <v>1278444</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.570700593976872</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.549019373700482</v>
+        <v>0.5484033427214031</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5922986661289535</v>
+        <v>0.5918022501069293</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>43802</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31702</v>
+        <v>31900</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>58646</v>
+        <v>58100</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04487019876413321</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03247535999850658</v>
+        <v>0.03267778277987793</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0600765191141998</v>
+        <v>0.05951736554524433</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>139</v>
@@ -3585,19 +3585,19 @@
         <v>145318</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>125072</v>
+        <v>122533</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>170478</v>
+        <v>169293</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1328002531397347</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1142976796488538</v>
+        <v>0.1119780200808568</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.155792242122812</v>
+        <v>0.1547100569735184</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>179</v>
@@ -3606,19 +3606,19 @@
         <v>189120</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>164268</v>
+        <v>166259</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>219092</v>
+        <v>217551</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09134234532725091</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07933906929241576</v>
+        <v>0.08030089871538189</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1058182546823578</v>
+        <v>0.1050737466727627</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>25477</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16182</v>
+        <v>16375</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>39075</v>
+        <v>41146</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02609813328118532</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01657614043915265</v>
+        <v>0.01677455352531224</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04002781122718813</v>
+        <v>0.04214950058517853</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>29</v>
@@ -3656,19 +3656,19 @@
         <v>31604</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>22062</v>
+        <v>20750</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>45544</v>
+        <v>43889</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0288820054064672</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02016148788324949</v>
+        <v>0.01896292413705621</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04162080650649801</v>
+        <v>0.04010818776769408</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>49</v>
@@ -3677,19 +3677,19 @@
         <v>57081</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>42251</v>
+        <v>42309</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>75099</v>
+        <v>75815</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02756944493153925</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02040653098481451</v>
+        <v>0.02043443533679947</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03627149389895687</v>
+        <v>0.03661760594909465</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>12872</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7263</v>
+        <v>7629</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>21655</v>
+        <v>21561</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01318638109514808</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.007440212930795107</v>
+        <v>0.007815299852153441</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02218321301205164</v>
+        <v>0.02208705831099408</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>12</v>
@@ -3727,19 +3727,19 @@
         <v>12875</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7037</v>
+        <v>6834</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22414</v>
+        <v>22918</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01176623989072479</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.006430398283580744</v>
+        <v>0.006245379820547855</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02048348248817073</v>
+        <v>0.02094373239555681</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>25</v>
@@ -3748,19 +3748,19 @@
         <v>25748</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>17219</v>
+        <v>17325</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>37074</v>
+        <v>38512</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01243581849558037</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.008316617857550042</v>
+        <v>0.00836767528431712</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01790606158745077</v>
+        <v>0.01860050260480327</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>321765</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>290701</v>
+        <v>292536</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>350241</v>
+        <v>349268</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3296113186822543</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2977906495685436</v>
+        <v>0.2996703973571762</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.358781774034878</v>
+        <v>0.3577849640957839</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>238</v>
@@ -3798,19 +3798,19 @@
         <v>253956</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>224036</v>
+        <v>227506</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>281963</v>
+        <v>282987</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2320795585429183</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2047368384848547</v>
+        <v>0.2079077756679148</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2576744331902066</v>
+        <v>0.2586094598181731</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>547</v>
@@ -3819,19 +3819,19 @@
         <v>575720</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>531731</v>
+        <v>533333</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>620436</v>
+        <v>616534</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2780645491056881</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2568182709982345</v>
+        <v>0.2575918886691779</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2996614195002044</v>
+        <v>0.2977769222648466</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>572278</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>541629</v>
+        <v>542471</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>604475</v>
+        <v>604053</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5862339681772791</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5548374658256612</v>
+        <v>0.5557000137864677</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6192155489374093</v>
+        <v>0.6187834103545953</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>602</v>
@@ -3869,19 +3869,19 @@
         <v>650508</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>616632</v>
+        <v>618524</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>682175</v>
+        <v>684813</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.594471943020155</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5635140993513446</v>
+        <v>0.5652434234589294</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6234114325924776</v>
+        <v>0.6258222361283106</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1143</v>
@@ -3890,19 +3890,19 @@
         <v>1222786</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1178003</v>
+        <v>1179023</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1269101</v>
+        <v>1267718</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5905878421399413</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5689580922569329</v>
+        <v>0.5694508201642415</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6129572826679807</v>
+        <v>0.612289086856074</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>31448</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20867</v>
+        <v>21448</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>43983</v>
+        <v>44910</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03561636967211571</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02363264095004957</v>
+        <v>0.02429076363768352</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04981238500553221</v>
+        <v>0.05086293113848803</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>92</v>
@@ -4015,19 +4015,19 @@
         <v>100495</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>82116</v>
+        <v>83030</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>119418</v>
+        <v>120653</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1147465972374828</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09376193286856094</v>
+        <v>0.09480461586480453</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1363533458856341</v>
+        <v>0.1377643434556458</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>121</v>
@@ -4036,19 +4036,19 @@
         <v>131943</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>111666</v>
+        <v>110892</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>155298</v>
+        <v>157195</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07502006581200039</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06349128964623106</v>
+        <v>0.06305093644354993</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08829911979255914</v>
+        <v>0.08937814912553002</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>19906</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12177</v>
+        <v>11854</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>32855</v>
+        <v>33910</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02254392167583364</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01379130032696252</v>
+        <v>0.01342521416542299</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03720908502874049</v>
+        <v>0.03840394493850172</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>25</v>
@@ -4086,19 +4086,19 @@
         <v>27248</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>18191</v>
+        <v>18572</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>41275</v>
+        <v>40167</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03111203554009677</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02077061509125941</v>
+        <v>0.02120583427216157</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04712842582360012</v>
+        <v>0.04586397332750419</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>41</v>
@@ -4107,19 +4107,19 @@
         <v>47153</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>33489</v>
+        <v>35118</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>62483</v>
+        <v>64283</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02681050052423217</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01904112571661776</v>
+        <v>0.01996757670451094</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03552646101820421</v>
+        <v>0.03655009994715477</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>10000</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4958</v>
+        <v>4959</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19072</v>
+        <v>19883</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01132595877113927</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.00561557021212183</v>
+        <v>0.005616558672963907</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02159927663786607</v>
+        <v>0.02251812732333297</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>13</v>
@@ -4157,19 +4157,19 @@
         <v>14273</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7985</v>
+        <v>7946</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>24391</v>
+        <v>24457</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0162967943629796</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.009116886193034876</v>
+        <v>0.009072928294670378</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02784990403643765</v>
+        <v>0.02792572548962071</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>22</v>
@@ -4178,19 +4178,19 @@
         <v>24273</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>15062</v>
+        <v>15229</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>37237</v>
+        <v>35465</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0138012365663459</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.00856395349999498</v>
+        <v>0.008659117203688999</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02117242412285464</v>
+        <v>0.02016485588113736</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>290818</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>264356</v>
+        <v>262798</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>322505</v>
+        <v>319456</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3293629612079605</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.299394091887784</v>
+        <v>0.2976290834108271</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3652494808716153</v>
+        <v>0.3617965670442411</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>196</v>
@@ -4228,19 +4228,19 @@
         <v>203879</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>178512</v>
+        <v>179207</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>227802</v>
+        <v>229183</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2327931980652759</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2038282445372147</v>
+        <v>0.2046222768561003</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2601080262423029</v>
+        <v>0.2616858328325274</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>473</v>
@@ -4249,19 +4249,19 @@
         <v>494697</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>456368</v>
+        <v>456711</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>532479</v>
+        <v>534503</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2812750721641483</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2594815261731073</v>
+        <v>0.259676612887439</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3027570231888747</v>
+        <v>0.3039075218951531</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>530799</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>500596</v>
+        <v>502149</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>560301</v>
+        <v>562831</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6011507886729509</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5669448405404887</v>
+        <v>0.5687039013803188</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6345634180001672</v>
+        <v>0.6374282600065173</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>495</v>
@@ -4299,19 +4299,19 @@
         <v>529902</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>500170</v>
+        <v>500205</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>558980</v>
+        <v>560377</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.605051374794165</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5711033476140379</v>
+        <v>0.5711435771525395</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6382534109981873</v>
+        <v>0.6398492854577809</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>992</v>
@@ -4320,19 +4320,19 @@
         <v>1060700</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1020053</v>
+        <v>1016925</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1102931</v>
+        <v>1102684</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6030931249332733</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.579982026799992</v>
+        <v>0.5782032100621197</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6271049418687644</v>
+        <v>0.6269640190981698</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>22155</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13696</v>
+        <v>14306</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>33836</v>
+        <v>34315</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04415324069991054</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02729520787554734</v>
+        <v>0.02850996104101228</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06743223367208896</v>
+        <v>0.06838610890100763</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -4445,19 +4445,19 @@
         <v>34060</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>25199</v>
+        <v>24419</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>48778</v>
+        <v>47195</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07523053286977661</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05565930473776092</v>
+        <v>0.0539355095755243</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1077396580118454</v>
+        <v>0.1042449869039287</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>52</v>
@@ -4466,19 +4466,19 @@
         <v>56215</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>43454</v>
+        <v>41719</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>72580</v>
+        <v>72294</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05889353986862424</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04552521631181623</v>
+        <v>0.04370705362772131</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07603870451855237</v>
+        <v>0.07573927914096643</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>10196</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4167</v>
+        <v>4900</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>20729</v>
+        <v>20076</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02031960566184676</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.008304136221942674</v>
+        <v>0.009764495049636853</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04131177081812092</v>
+        <v>0.04001022589092911</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -4516,19 +4516,19 @@
         <v>6076</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2035</v>
+        <v>2116</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>13446</v>
+        <v>15561</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01342167689250835</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.004495559408853654</v>
+        <v>0.004672908587957627</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02969990451382947</v>
+        <v>0.03437125639889174</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>13</v>
@@ -4537,19 +4537,19 @@
         <v>16272</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>9665</v>
+        <v>9254</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>28365</v>
+        <v>28707</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01704784269264198</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01012520995476548</v>
+        <v>0.009695303685589041</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02971689780928617</v>
+        <v>0.03007537954940395</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>5726</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2043</v>
+        <v>2071</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12422</v>
+        <v>13614</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01141080357414125</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.004070939717515463</v>
+        <v>0.00412762418319387</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02475664325586092</v>
+        <v>0.02713191034994301</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>6</v>
@@ -4587,19 +4587,19 @@
         <v>6357</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2291</v>
+        <v>2756</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>13672</v>
+        <v>12838</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01404131066653868</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.005061306220410167</v>
+        <v>0.006086708842733432</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03019950505084959</v>
+        <v>0.02835616810502268</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>11</v>
@@ -4608,19 +4608,19 @@
         <v>12083</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>6198</v>
+        <v>6258</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>21577</v>
+        <v>21781</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01265848182408089</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.006493265857563185</v>
+        <v>0.006555959890105438</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02260558338381399</v>
+        <v>0.02281871841256515</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>176471</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>155739</v>
+        <v>154162</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>202616</v>
+        <v>198984</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3516917501717609</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3103739600140407</v>
+        <v>0.307232006454416</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4037968875209653</v>
+        <v>0.3965581082171977</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>115</v>
@@ -4658,19 +4658,19 @@
         <v>121686</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>103909</v>
+        <v>102814</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>139771</v>
+        <v>142529</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2687793547683016</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2295126817370995</v>
+        <v>0.227094537424081</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3087252838086035</v>
+        <v>0.3148162693792028</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>284</v>
@@ -4679,19 +4679,19 @@
         <v>298157</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>269967</v>
+        <v>269427</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>328061</v>
+        <v>331413</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3123654952856699</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2828320893649219</v>
+        <v>0.2822669201270363</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3436953107190598</v>
+        <v>0.3472065717979644</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>287229</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>261687</v>
+        <v>263609</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>311309</v>
+        <v>311636</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5724245998923406</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5215203861702372</v>
+        <v>0.525350810334955</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6204132841350847</v>
+        <v>0.6210645718142518</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>254</v>
@@ -4729,19 +4729,19 @@
         <v>284557</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>262824</v>
+        <v>261996</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>305331</v>
+        <v>306817</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6285271248028748</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5805237435649866</v>
+        <v>0.578695805629976</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.674412548607349</v>
+        <v>0.6776943569301521</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>512</v>
@@ -4750,19 +4750,19 @@
         <v>571786</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>538881</v>
+        <v>539240</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>601544</v>
+        <v>601187</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.599034640328983</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5645618005383425</v>
+        <v>0.5649374725449497</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6302111181876904</v>
+        <v>0.6298366392212789</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>120731</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>100065</v>
+        <v>100991</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>144427</v>
+        <v>146774</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03548605785792669</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02941188556051979</v>
+        <v>0.02968402192803115</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04245082874927891</v>
+        <v>0.04314083639387432</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>397</v>
@@ -4875,19 +4875,19 @@
         <v>424889</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>384720</v>
+        <v>387863</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>467006</v>
+        <v>468197</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1199648468624117</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1086233950487248</v>
+        <v>0.1095107432160379</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1318560882553323</v>
+        <v>0.132192585960683</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>507</v>
@@ -4896,19 +4896,19 @@
         <v>545620</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>499162</v>
+        <v>500638</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>594679</v>
+        <v>592725</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07857446737603073</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07188398007183282</v>
+        <v>0.0720965131352018</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08563940744329142</v>
+        <v>0.08535794217340868</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>83506</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>65471</v>
+        <v>63698</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>105835</v>
+        <v>104674</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02454472098730022</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01924354008957209</v>
+        <v>0.01872254055932205</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03110776556500873</v>
+        <v>0.03076648519618463</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>107</v>
@@ -4946,19 +4946,19 @@
         <v>115382</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>93440</v>
+        <v>94868</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>137742</v>
+        <v>138874</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03257729637666733</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02638217136915784</v>
+        <v>0.02678541259227777</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03889049987233351</v>
+        <v>0.03921014874268215</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>177</v>
@@ -4967,19 +4967,19 @@
         <v>198888</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>169161</v>
+        <v>170520</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>227612</v>
+        <v>232026</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02864173636761916</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.024360745626107</v>
+        <v>0.02455655224737698</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03277828981043689</v>
+        <v>0.03341398834542255</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>55082</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>41890</v>
+        <v>40931</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>73565</v>
+        <v>71042</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01619005438340198</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.012312623485763</v>
+        <v>0.01203058190178403</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02162275485233596</v>
+        <v>0.02088108894443769</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>71</v>
@@ -5017,19 +5017,19 @@
         <v>78929</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>61673</v>
+        <v>62085</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>97718</v>
+        <v>97116</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02228517095874436</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01741284038532817</v>
+        <v>0.01752919652998036</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02759006941629001</v>
+        <v>0.02742007924518043</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>123</v>
@@ -5038,19 +5038,19 @@
         <v>134011</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>110908</v>
+        <v>113326</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>159934</v>
+        <v>159471</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01929886882255064</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01597182328372822</v>
+        <v>0.01632006373571955</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02303194612984082</v>
+        <v>0.02296533079084518</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>1140623</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1084236</v>
+        <v>1079627</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1200067</v>
+        <v>1197167</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3352596206703307</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.318685848415112</v>
+        <v>0.3173312709548609</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.352731960854515</v>
+        <v>0.3518794475773011</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>784</v>
@@ -5088,19 +5088,19 @@
         <v>836717</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>789960</v>
+        <v>789053</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>899905</v>
+        <v>894190</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2362417277959554</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2230402879911556</v>
+        <v>0.2227841614274498</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2540825454308429</v>
+        <v>0.2524689951904736</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1877</v>
@@ -5109,19 +5109,19 @@
         <v>1977340</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1903541</v>
+        <v>1901009</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2052210</v>
+        <v>2052229</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.284755540675004</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2741278595359207</v>
+        <v>0.2737631119467054</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2955375087987267</v>
+        <v>0.2955402861101202</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>2002266</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1937616</v>
+        <v>1940384</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2060928</v>
+        <v>2065712</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5885195461010404</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5695170625852153</v>
+        <v>0.5703309369627053</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6057620110654742</v>
+        <v>0.6071680874232587</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1924</v>
@@ -5159,19 +5159,19 @@
         <v>2085866</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2019238</v>
+        <v>2017226</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2144253</v>
+        <v>2139061</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5889309580062212</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5701190296878842</v>
+        <v>0.5695510227391738</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6054163646334088</v>
+        <v>0.6039503062973451</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3785</v>
@@ -5180,19 +5180,19 @@
         <v>4088132</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4002663</v>
+        <v>4007935</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>4167719</v>
+        <v>4166750</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5887293867587955</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5764211713693707</v>
+        <v>0.5771803658288628</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.600190746584037</v>
+        <v>0.6000512161201089</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>49427</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38019</v>
+        <v>37074</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>65673</v>
+        <v>64820</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04385166772703878</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0337304981917634</v>
+        <v>0.03289251291838763</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05826588162254549</v>
+        <v>0.05750884361603471</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>140</v>
@@ -5545,19 +5545,19 @@
         <v>164834</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>143046</v>
+        <v>141466</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>192049</v>
+        <v>191921</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1310972905023598</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1137684589393345</v>
+        <v>0.1125120120810326</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1527416669831173</v>
+        <v>0.1526405712227212</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>191</v>
@@ -5566,19 +5566,19 @@
         <v>214261</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>184366</v>
+        <v>186095</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>242948</v>
+        <v>242376</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08985661291992214</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07731947725041549</v>
+        <v>0.07804462633889644</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.101887478656629</v>
+        <v>0.1016477429656498</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>36739</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25214</v>
+        <v>25537</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>50936</v>
+        <v>49277</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03259507852026108</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02236997105619037</v>
+        <v>0.02265675704944297</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04519055874885761</v>
+        <v>0.0437188031900505</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>80</v>
@@ -5616,19 +5616,19 @@
         <v>87042</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>70288</v>
+        <v>70325</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>106823</v>
+        <v>107282</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06922677778718778</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05590224052167866</v>
+        <v>0.05593137033570724</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08495908873582345</v>
+        <v>0.08532415819355614</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>114</v>
@@ -5637,19 +5637,19 @@
         <v>123781</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>103235</v>
+        <v>103238</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>148073</v>
+        <v>146883</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0519111113880309</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04329446869255194</v>
+        <v>0.04329574953926521</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06209874228019632</v>
+        <v>0.06159985838974924</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>37023</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>25840</v>
+        <v>26389</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>51065</v>
+        <v>50986</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0328474693853195</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02292538022476363</v>
+        <v>0.02341243362202432</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04530539978634826</v>
+        <v>0.0452348172568618</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>52</v>
@@ -5687,19 +5687,19 @@
         <v>53531</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>39792</v>
+        <v>40944</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>68497</v>
+        <v>67881</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04257463068144043</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0316479769147906</v>
+        <v>0.03256375029729194</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05447725469803215</v>
+        <v>0.05398784537086947</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>86</v>
@@ -5708,19 +5708,19 @@
         <v>90554</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>74798</v>
+        <v>73754</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>112549</v>
+        <v>111220</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03797663813986889</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03136858867727401</v>
+        <v>0.03093076511947877</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0472007732632353</v>
+        <v>0.04664347174098733</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>399802</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>366071</v>
+        <v>364030</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>435365</v>
+        <v>432395</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3547069703904693</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3247813107688932</v>
+        <v>0.3229704019849585</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3862592590876191</v>
+        <v>0.3836244225229599</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>311</v>
@@ -5758,19 +5758,19 @@
         <v>314942</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>282977</v>
+        <v>288084</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>346020</v>
+        <v>346780</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2504820420316892</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2250593321917767</v>
+        <v>0.2291216769889693</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2751999188853951</v>
+        <v>0.275804105278084</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>687</v>
@@ -5779,19 +5779,19 @@
         <v>714743</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>670278</v>
+        <v>667230</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>759377</v>
+        <v>760527</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2997487734706557</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2811011288841745</v>
+        <v>0.279822582185307</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3184672658494649</v>
+        <v>0.3189496636238372</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>604141</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>571660</v>
+        <v>569605</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>639885</v>
+        <v>641420</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5359988139769113</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5071811333080638</v>
+        <v>0.5053582122212354</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5677111900308438</v>
+        <v>0.569073094296218</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>603</v>
@@ -5829,19 +5829,19 @@
         <v>636994</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>599213</v>
+        <v>603884</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>672797</v>
+        <v>674543</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5066192589973227</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4765710206854881</v>
+        <v>0.480285936291678</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.535094894886278</v>
+        <v>0.5364835592958912</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1173</v>
@@ -5850,19 +5850,19 @@
         <v>1241135</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1191763</v>
+        <v>1189739</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1286698</v>
+        <v>1289212</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5205068640815224</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.499801413679647</v>
+        <v>0.4989525032642771</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5396150724645665</v>
+        <v>0.5406694402129278</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>38060</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26955</v>
+        <v>26883</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51928</v>
+        <v>50619</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04187820964642382</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02965909048259186</v>
+        <v>0.02957995929642852</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05713719955364196</v>
+        <v>0.05569675139414813</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>101</v>
@@ -5975,19 +5975,19 @@
         <v>122179</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>102884</v>
+        <v>100761</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>145444</v>
+        <v>143512</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1216291675075407</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1024209744528206</v>
+        <v>0.1003074988990341</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1447887723782254</v>
+        <v>0.1428661182916712</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>142</v>
@@ -5996,19 +5996,19 @@
         <v>160239</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>135708</v>
+        <v>135072</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>188976</v>
+        <v>188116</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08374809005134935</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07092702230616912</v>
+        <v>0.07059440960602953</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0987671374969472</v>
+        <v>0.09831751558448328</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>20044</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12429</v>
+        <v>11522</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>32868</v>
+        <v>31428</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.022054335307621</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01367606057425012</v>
+        <v>0.012678000658925</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03616540007222473</v>
+        <v>0.03458072808278501</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>30</v>
@@ -6046,19 +6046,19 @@
         <v>32057</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>22143</v>
+        <v>21787</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>45647</v>
+        <v>43325</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03191256370979024</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02204324813910807</v>
+        <v>0.0216885236810263</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04544160222051068</v>
+        <v>0.04313025712157169</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>47</v>
@@ -6067,19 +6067,19 @@
         <v>52100</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>38800</v>
+        <v>37833</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>66813</v>
+        <v>68991</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02722998278914814</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02027884243678528</v>
+        <v>0.019773283265298</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03491963433955985</v>
+        <v>0.03605762932733034</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>27554</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17495</v>
+        <v>18326</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>40159</v>
+        <v>40156</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03031877844902819</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01925020474714824</v>
+        <v>0.02016400473239567</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04418811231026708</v>
+        <v>0.04418438928176122</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>24</v>
@@ -6117,19 +6117,19 @@
         <v>24224</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>16216</v>
+        <v>15139</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>34901</v>
+        <v>34721</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02411453945855329</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01614328311347854</v>
+        <v>0.01507067422858436</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03474385303425642</v>
+        <v>0.03456501918524937</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>49</v>
@@ -6138,19 +6138,19 @@
         <v>51778</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>39093</v>
+        <v>38374</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>69017</v>
+        <v>68365</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02706150416039657</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02043158124115075</v>
+        <v>0.02005571862464344</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03607120771720922</v>
+        <v>0.03573048872380326</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>294713</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>267225</v>
+        <v>266803</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>319858</v>
+        <v>324272</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3242789843274278</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2940335885877372</v>
+        <v>0.293568895470064</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3519469619095672</v>
+        <v>0.3568034785034478</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>257</v>
@@ -6188,19 +6188,19 @@
         <v>254471</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>227258</v>
+        <v>228174</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>283405</v>
+        <v>282296</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2533255434360666</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.226234839182409</v>
+        <v>0.2271468330781633</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2821295757781334</v>
+        <v>0.2810252749748705</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>540</v>
@@ -6209,19 +6209,19 @@
         <v>549184</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>513038</v>
+        <v>504504</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>589502</v>
+        <v>587363</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2870278695557056</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2681364709636562</v>
+        <v>0.2636763014058096</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3080996785448636</v>
+        <v>0.3069819771818789</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>528454</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>498159</v>
+        <v>500200</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>555762</v>
+        <v>558204</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5814696922694992</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5481353242484277</v>
+        <v>0.5503808040230664</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6115167856936017</v>
+        <v>0.6142035782025296</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>537</v>
@@ -6259,19 +6259,19 @@
         <v>571591</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>539493</v>
+        <v>541078</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>604761</v>
+        <v>604001</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5690181858880491</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5370643658022927</v>
+        <v>0.5386421435503156</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6020386537404318</v>
+        <v>0.6012824254697496</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1052</v>
@@ -6280,19 +6280,19 @@
         <v>1100045</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1055026</v>
+        <v>1060163</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1140130</v>
+        <v>1144688</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5749325534434003</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5514034263870943</v>
+        <v>0.5540881367714324</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5958824531835832</v>
+        <v>0.5982646793815528</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>24851</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16199</v>
+        <v>16472</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34821</v>
+        <v>35678</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03016822116148157</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01966437263856674</v>
+        <v>0.01999569954715431</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04227037940237089</v>
+        <v>0.0433106425694745</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>74</v>
@@ -6405,19 +6405,19 @@
         <v>91881</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>72921</v>
+        <v>73563</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>113133</v>
+        <v>112842</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.119161471831842</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09457307852225756</v>
+        <v>0.09540557160681516</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1467242287668801</v>
+        <v>0.1463468793453873</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>101</v>
@@ -6426,19 +6426,19 @@
         <v>116732</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>94228</v>
+        <v>96179</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>139224</v>
+        <v>139753</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07319446008059101</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05908414427648894</v>
+        <v>0.06030689993879073</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08729743545556756</v>
+        <v>0.08762917819605509</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>13271</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6689</v>
+        <v>6727</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24001</v>
+        <v>23187</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01611086921579757</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.008120578670984122</v>
+        <v>0.008165751373116086</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0291355650755556</v>
+        <v>0.0281478775797953</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -6476,19 +6476,19 @@
         <v>16659</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10011</v>
+        <v>9660</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>27118</v>
+        <v>26208</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02160544576094126</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01298397244741407</v>
+        <v>0.01252796955808497</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03516965913133599</v>
+        <v>0.03398961206488639</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>27</v>
@@ -6497,19 +6497,19 @@
         <v>29931</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>19980</v>
+        <v>20014</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>44213</v>
+        <v>43903</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01876737362944548</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01252804486255431</v>
+        <v>0.01254914219722771</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02772280546286322</v>
+        <v>0.02752830988714674</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>20469</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12483</v>
+        <v>12599</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>30777</v>
+        <v>31670</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02484843688657627</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01515390216781147</v>
+        <v>0.01529500854632618</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03736132006707852</v>
+        <v>0.03844606397803278</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>17</v>
@@ -6547,19 +6547,19 @@
         <v>17875</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>11460</v>
+        <v>10843</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>29424</v>
+        <v>28352</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02318179890482178</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01486330185270687</v>
+        <v>0.0140625112892259</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03816060365558742</v>
+        <v>0.03677026344719753</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>36</v>
@@ -6568,19 +6568,19 @@
         <v>38344</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>27156</v>
+        <v>27685</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>52085</v>
+        <v>53116</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02404265483620203</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01702791511413898</v>
+        <v>0.01735927502663825</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03265895744792616</v>
+        <v>0.03330525476069955</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>275439</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>248281</v>
+        <v>249589</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>304359</v>
+        <v>303593</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3343684721560515</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3014001634198808</v>
+        <v>0.3029874438140604</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3694752056309489</v>
+        <v>0.3685459324642377</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>200</v>
@@ -6618,19 +6618,19 @@
         <v>200995</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>177108</v>
+        <v>174735</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>227073</v>
+        <v>225149</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2606735963270385</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2296950871807793</v>
+        <v>0.2266163078458244</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2944946779985979</v>
+        <v>0.2919991314311828</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>461</v>
@@ -6639,19 +6639,19 @@
         <v>476434</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>439627</v>
+        <v>439699</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>510786</v>
+        <v>513621</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2987386540445836</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2756597408011949</v>
+        <v>0.2757050359897495</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3202786142317569</v>
+        <v>0.3220559852774766</v>
       </c>
     </row>
     <row r="20">
@@ -6668,19 +6668,19 @@
         <v>489728</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>459899</v>
+        <v>460941</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>518404</v>
+        <v>517781</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5945040005800931</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5582930955299416</v>
+        <v>0.5595580457702363</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6293155869087852</v>
+        <v>0.628559088444247</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>421</v>
@@ -6689,19 +6689,19 @@
         <v>443650</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>416745</v>
+        <v>417273</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>468873</v>
+        <v>472831</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5753776871753564</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5404834990659533</v>
+        <v>0.5411683319349453</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6080891871270455</v>
+        <v>0.6132228977326345</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>890</v>
@@ -6710,19 +6710,19 @@
         <v>933378</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>893190</v>
+        <v>893740</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>975085</v>
+        <v>972163</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5852568574091779</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5600578600493473</v>
+        <v>0.5604027358159278</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6114082304601123</v>
+        <v>0.6095759414718549</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>28838</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>18988</v>
+        <v>19786</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>40653</v>
+        <v>40989</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05691372585947776</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03747395101661739</v>
+        <v>0.03904805358504376</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08022990576771098</v>
+        <v>0.08089418827780245</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>44</v>
@@ -6835,19 +6835,19 @@
         <v>56421</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>41599</v>
+        <v>42831</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>73401</v>
+        <v>74747</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1152155818051199</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08494876764843957</v>
+        <v>0.08746474625462634</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1498895983190192</v>
+        <v>0.1526388858743115</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>74</v>
@@ -6856,19 +6856,19 @@
         <v>85259</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>67876</v>
+        <v>67738</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>107190</v>
+        <v>107572</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08556719881103443</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06812166403631199</v>
+        <v>0.06798256866831448</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1075771979705832</v>
+        <v>0.1079609391628624</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>19380</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11120</v>
+        <v>11660</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>29061</v>
+        <v>30593</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0382469545592811</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02194528390381923</v>
+        <v>0.0230109727121037</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05735318533727748</v>
+        <v>0.06037704702873883</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>21</v>
@@ -6906,19 +6906,19 @@
         <v>23244</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>14551</v>
+        <v>14427</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>34291</v>
+        <v>36822</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0474664005092776</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02971400462340175</v>
+        <v>0.02946132502286049</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07002518160149451</v>
+        <v>0.0751934332390556</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>38</v>
@@ -6927,19 +6927,19 @@
         <v>42624</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>31972</v>
+        <v>30149</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>57945</v>
+        <v>58237</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04277801349165646</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03208757230545814</v>
+        <v>0.03025783610338639</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05815462539427406</v>
+        <v>0.05844747739913357</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>11053</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5697</v>
+        <v>5289</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>20165</v>
+        <v>20382</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02181285519360207</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01124310999447704</v>
+        <v>0.01043858269818728</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03979726471401843</v>
+        <v>0.04022470416814894</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>8</v>
@@ -6977,19 +6977,19 @@
         <v>8630</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3863</v>
+        <v>4020</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>16407</v>
+        <v>17376</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01762286496153843</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.007888871684956753</v>
+        <v>0.00820863779210998</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03350430780423456</v>
+        <v>0.03548316694950736</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>18</v>
@@ -6998,19 +6998,19 @@
         <v>19682</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>12091</v>
+        <v>11548</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>32305</v>
+        <v>29487</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01975361076931379</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01213469856979024</v>
+        <v>0.01159007319207591</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03242162336539648</v>
+        <v>0.02959380749717538</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>184394</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>162797</v>
+        <v>161634</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>206936</v>
+        <v>205641</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3639117494980059</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3212888187740057</v>
+        <v>0.3189933988063122</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4083982794907739</v>
+        <v>0.4058430739347377</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>147</v>
@@ -7048,19 +7048,19 @@
         <v>147453</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>129830</v>
+        <v>130463</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>170404</v>
+        <v>170062</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3011093661691225</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2651233230338376</v>
+        <v>0.2664146732304515</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3479774056871491</v>
+        <v>0.3472786442139739</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>319</v>
@@ -7069,19 +7069,19 @@
         <v>331847</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>303624</v>
+        <v>304300</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>361100</v>
+        <v>364200</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3330464131751755</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3047213607832653</v>
+        <v>0.3054001269737046</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3624048993202734</v>
+        <v>0.3655167432948296</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>263036</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>239398</v>
+        <v>240657</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>286604</v>
+        <v>285239</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5191147148896331</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4724638991451802</v>
+        <v>0.4749488767723621</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5656272067685855</v>
+        <v>0.5629326421613211</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>235</v>
@@ -7119,19 +7119,19 @@
         <v>253950</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>231965</v>
+        <v>228768</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>277602</v>
+        <v>276197</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5185857865549416</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4736895380034394</v>
+        <v>0.4671619802174747</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5668847703258252</v>
+        <v>0.5640140082918089</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>477</v>
@@ -7140,19 +7140,19 @@
         <v>516986</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>485543</v>
+        <v>483402</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>547732</v>
+        <v>548680</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5188547637528198</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4872978196672008</v>
+        <v>0.4851494837313939</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5497125299585819</v>
+        <v>0.55066319056909</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>141176</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>119886</v>
+        <v>120094</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>164859</v>
+        <v>166361</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04193662325761626</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03561226072797536</v>
+        <v>0.03567423257147874</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04897157239174664</v>
+        <v>0.04941786978169808</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>359</v>
@@ -7265,19 +7265,19 @@
         <v>435315</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>392063</v>
+        <v>396793</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>479234</v>
+        <v>482242</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1235769264139677</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1112986207919806</v>
+        <v>0.1126413108612148</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1360447731384333</v>
+        <v>0.1368986866424181</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>508</v>
@@ -7286,19 +7286,19 @@
         <v>576491</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>523114</v>
+        <v>531348</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>622639</v>
+        <v>624578</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08368234109654188</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07593431520314489</v>
+        <v>0.07712946386012744</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09038117603681828</v>
+        <v>0.09066252472911902</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>89434</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>70873</v>
+        <v>71826</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>113901</v>
+        <v>111054</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02656644354021706</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0210529292848551</v>
+        <v>0.02133615322871302</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03383439127014888</v>
+        <v>0.03298887921961784</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>147</v>
@@ -7336,19 +7336,19 @@
         <v>159002</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>134514</v>
+        <v>136123</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>184652</v>
+        <v>186596</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04513738237669604</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03818571219546377</v>
+        <v>0.03864258692068142</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05241889760379115</v>
+        <v>0.05297075823934514</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>226</v>
@@ -7357,19 +7357,19 @@
         <v>248436</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>219319</v>
+        <v>216161</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>279321</v>
+        <v>281134</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03606245399949821</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03183588878712839</v>
+        <v>0.03137749991424932</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04054565683875923</v>
+        <v>0.04080894224818121</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>96100</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>76787</v>
+        <v>76023</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>117489</v>
+        <v>117692</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02854655738484199</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02280975784104844</v>
+        <v>0.02258279528576786</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03490031747748961</v>
+        <v>0.03496056667253434</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>101</v>
@@ -7407,19 +7407,19 @@
         <v>104259</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>84024</v>
+        <v>84716</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>127937</v>
+        <v>125183</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02959696284239018</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02385258575180248</v>
+        <v>0.02404921650438657</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0363187309266351</v>
+        <v>0.03553678677787686</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>189</v>
@@ -7428,19 +7428,19 @@
         <v>200358</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>175730</v>
+        <v>174036</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>230137</v>
+        <v>228795</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02908366869080194</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02550863587329733</v>
+        <v>0.02526269910875129</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03340623789770299</v>
+        <v>0.03321140154374911</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>1154348</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1100682</v>
+        <v>1102061</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1210407</v>
+        <v>1211203</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3429010457506536</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3269595174029438</v>
+        <v>0.3273690340067431</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3595534188767267</v>
+        <v>0.3597898305254088</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>915</v>
@@ -7478,19 +7478,19 @@
         <v>917860</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>868430</v>
+        <v>868373</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>975113</v>
+        <v>974561</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2605616744963852</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2465295554537042</v>
+        <v>0.2465134496957985</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2768147302381945</v>
+        <v>0.2766579733897551</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2007</v>
@@ -7499,19 +7499,19 @@
         <v>2072208</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1999370</v>
+        <v>2002032</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2151624</v>
+        <v>2160030</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3007978684408837</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2902248675237938</v>
+        <v>0.2906112922349443</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3123256866192938</v>
+        <v>0.3135460273430891</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>1885360</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1822639</v>
+        <v>1824980</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1942182</v>
+        <v>1944408</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5600493300666711</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5414181792760495</v>
+        <v>0.5421134655859294</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5769285271902148</v>
+        <v>0.5775896184383204</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1796</v>
@@ -7549,19 +7549,19 @@
         <v>1906186</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1848021</v>
+        <v>1837382</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1968262</v>
+        <v>1962050</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5411270538705608</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5246153285345498</v>
+        <v>0.5215951205858453</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5587492642336803</v>
+        <v>0.5569859684972246</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3592</v>
@@ -7570,19 +7570,19 @@
         <v>3791545</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3706136</v>
+        <v>3702489</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3875788</v>
+        <v>3868860</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5503736677722743</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5379758664228672</v>
+        <v>0.537446414332559</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5626022592449706</v>
+        <v>0.5615965247164804</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>24293</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16823</v>
+        <v>17182</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34279</v>
+        <v>34249</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0488204107803646</v>
+        <v>0.04882041078036459</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03380757039221279</v>
+        <v>0.03452973832083088</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06888699745489417</v>
+        <v>0.06882823681108856</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>209</v>
@@ -7935,19 +7935,19 @@
         <v>116973</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>102548</v>
+        <v>103078</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>132201</v>
+        <v>133596</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1884116859562261</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1651762714635904</v>
+        <v>0.1660307918145975</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2129385902986413</v>
+        <v>0.2151868798639986</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>241</v>
@@ -7956,19 +7956,19 @@
         <v>141267</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>124081</v>
+        <v>124446</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>160586</v>
+        <v>161202</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1263063386270431</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1109411121158727</v>
+        <v>0.1112673702354567</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1435797777433132</v>
+        <v>0.1441302311667379</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>23481</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15297</v>
+        <v>15483</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>33141</v>
+        <v>34075</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04718791321040706</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03074045169532437</v>
+        <v>0.03111444965797116</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0666009195599742</v>
+        <v>0.06847859350455854</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>74</v>
@@ -8006,19 +8006,19 @@
         <v>48425</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>38524</v>
+        <v>38749</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>60912</v>
+        <v>59937</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07799866349438039</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06205162042608828</v>
+        <v>0.06241316432069803</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09811224316157274</v>
+        <v>0.09654123899982246</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>99</v>
@@ -8027,19 +8027,19 @@
         <v>71906</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>59298</v>
+        <v>59182</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>87200</v>
+        <v>87592</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06429069825480373</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05301854539066745</v>
+        <v>0.05291457784678857</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07796512438769221</v>
+        <v>0.07831555048109361</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>23485</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15600</v>
+        <v>14051</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>35971</v>
+        <v>34590</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04719661700528467</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03135059357526995</v>
+        <v>0.02823708056329083</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07228782009867429</v>
+        <v>0.06951337359399923</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>51</v>
@@ -8077,19 +8077,19 @@
         <v>38939</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>29136</v>
+        <v>29460</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>50403</v>
+        <v>50786</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06271952607329198</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04693040308778351</v>
+        <v>0.04745262652972681</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08118512964711211</v>
+        <v>0.0818027058799604</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>73</v>
@@ -8098,19 +8098,19 @@
         <v>62424</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>49357</v>
+        <v>49453</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>78406</v>
+        <v>78667</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.0558132516086926</v>
+        <v>0.05581325160869259</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04412968166744172</v>
+        <v>0.04421622796320274</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07010231918633759</v>
+        <v>0.07033574831465401</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>228517</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>202938</v>
+        <v>202909</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>253774</v>
+        <v>252921</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4592329951263922</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4078295685471233</v>
+        <v>0.4077715619840548</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5099916344568531</v>
+        <v>0.5082768264926297</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>197</v>
@@ -8148,19 +8148,19 @@
         <v>194006</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>172747</v>
+        <v>170889</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>219209</v>
+        <v>217562</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3124899454018548</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2782478957110646</v>
+        <v>0.2752544674560139</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3530851137151966</v>
+        <v>0.350432886408077</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>371</v>
@@ -8169,19 +8169,19 @@
         <v>422523</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>390437</v>
+        <v>384350</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>458369</v>
+        <v>455988</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3777771781447641</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3490894353067789</v>
+        <v>0.3436474801156154</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4098274269907353</v>
+        <v>0.4076982760080886</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>197829</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>173442</v>
+        <v>175914</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>221896</v>
+        <v>221368</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3975620638775515</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3485541311424333</v>
+        <v>0.3535219020767302</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4459272747926435</v>
+        <v>0.4448676837653562</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>326</v>
@@ -8219,19 +8219,19 @@
         <v>222496</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>201929</v>
+        <v>201899</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>244129</v>
+        <v>244282</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3583801790742467</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3252515307602367</v>
+        <v>0.3252037224269523</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3932244104849407</v>
+        <v>0.393470440523648</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>527</v>
@@ -8240,19 +8240,19 @@
         <v>420325</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>391886</v>
+        <v>394022</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>454161</v>
+        <v>453842</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.3758125333646964</v>
+        <v>0.3758125333646965</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3503852067608897</v>
+        <v>0.3522943634992644</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.40606525587613</v>
+        <v>0.4057799052687937</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>41488</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31387</v>
+        <v>31306</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53830</v>
+        <v>53673</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.04325076100518508</v>
+        <v>0.04325076100518507</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03272065434577038</v>
+        <v>0.03263579758448146</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05611696470430521</v>
+        <v>0.05595379354611513</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>332</v>
@@ -8365,19 +8365,19 @@
         <v>179562</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>161470</v>
+        <v>158824</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>200908</v>
+        <v>198283</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1611072409387421</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1448744152322382</v>
+        <v>0.1425005176055011</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.180259358092701</v>
+        <v>0.1779038978128065</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>394</v>
@@ -8386,19 +8386,19 @@
         <v>221050</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>199680</v>
+        <v>200082</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>244063</v>
+        <v>242147</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1065921698783565</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09628728850892256</v>
+        <v>0.09648107548048347</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1176889050589854</v>
+        <v>0.1167650360671587</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>33035</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>23337</v>
+        <v>22841</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>44654</v>
+        <v>44394</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.03443819617251744</v>
+        <v>0.03443819617251745</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0243283645365029</v>
+        <v>0.02381100980045272</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04655169511295787</v>
+        <v>0.04628068730699137</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>97</v>
@@ -8436,19 +8436,19 @@
         <v>64996</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>52751</v>
+        <v>52703</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>79320</v>
+        <v>77981</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.05831587113742901</v>
+        <v>0.05831587113742902</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04732969882046505</v>
+        <v>0.04728652406402915</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0711674260424283</v>
+        <v>0.06996664615081705</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>133</v>
@@ -8457,19 +8457,19 @@
         <v>98031</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>82213</v>
+        <v>82686</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>116089</v>
+        <v>116597</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04727113988291684</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03964354917491744</v>
+        <v>0.03987165434045672</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05597885574461534</v>
+        <v>0.05622383187536808</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>28617</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18926</v>
+        <v>20111</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>40137</v>
+        <v>42466</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02983325448248766</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01972961188366763</v>
+        <v>0.02096509436471525</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04184236432548992</v>
+        <v>0.04426993234782469</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>47</v>
@@ -8507,19 +8507,19 @@
         <v>32650</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>23803</v>
+        <v>24384</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>42041</v>
+        <v>42799</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02929429871999246</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02135617038583548</v>
+        <v>0.02187824918019833</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03771993546852964</v>
+        <v>0.03840044872308779</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>78</v>
@@ -8528,19 +8528,19 @@
         <v>61267</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>47761</v>
+        <v>48595</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>76151</v>
+        <v>77079</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.02954359525173508</v>
+        <v>0.02954359525173509</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0230306432871352</v>
+        <v>0.02343303684875223</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03672052799142655</v>
+        <v>0.03716801819930889</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>361349</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>325421</v>
+        <v>327065</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>394352</v>
+        <v>397856</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3767014407605662</v>
+        <v>0.3767014407605663</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3392476754142588</v>
+        <v>0.3409615870477662</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4111067831984329</v>
+        <v>0.414759679990091</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>278</v>
@@ -8578,19 +8578,19 @@
         <v>279105</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>252786</v>
+        <v>249949</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>311717</v>
+        <v>308646</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2504191572425535</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2268050974653014</v>
+        <v>0.2242594536062491</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2796794925860523</v>
+        <v>0.2769236538750444</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>523</v>
@@ -8599,19 +8599,19 @@
         <v>640453</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>595878</v>
+        <v>596261</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>688984</v>
+        <v>694236</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3088316235196162</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2873368200490728</v>
+        <v>0.287521803656237</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3322332388901895</v>
+        <v>0.3347658869314594</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>494755</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>466011</v>
+        <v>457649</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>532384</v>
+        <v>528174</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5157763475792435</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4858109697956224</v>
+        <v>0.4770930886131586</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5550041967807584</v>
+        <v>0.550615122715314</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>851</v>
@@ -8649,19 +8649,19 @@
         <v>558238</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>527524</v>
+        <v>528168</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>587091</v>
+        <v>588328</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.500863431961283</v>
+        <v>0.5008634319612829</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4733060446352202</v>
+        <v>0.4738843305190276</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5267512479546815</v>
+        <v>0.5278613221926897</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1386</v>
@@ -8670,19 +8670,19 @@
         <v>1052993</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1008886</v>
+        <v>1001467</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1101500</v>
+        <v>1097628</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5077614714673753</v>
+        <v>0.5077614714673754</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4864928683329693</v>
+        <v>0.4829149641536625</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5311516176220979</v>
+        <v>0.5292845031858264</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>47394</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>37863</v>
+        <v>37165</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60274</v>
+        <v>60117</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.04536146216477881</v>
+        <v>0.0453614621647788</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03623925671658733</v>
+        <v>0.03557147339129494</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0576887690847864</v>
+        <v>0.05753876754645823</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>213</v>
@@ -8795,19 +8795,19 @@
         <v>115596</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>100200</v>
+        <v>100489</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>131748</v>
+        <v>131671</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1107041951761804</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09595960940074962</v>
+        <v>0.09623604202630565</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1261717806089431</v>
+        <v>0.1260980669125677</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>285</v>
@@ -8816,19 +8816,19 @@
         <v>162990</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>143159</v>
+        <v>144135</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>183275</v>
+        <v>184878</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07802324069756551</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06853009098608191</v>
+        <v>0.06899727924319971</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08773369577510472</v>
+        <v>0.08850067802591073</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>38594</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>27652</v>
+        <v>27543</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>51743</v>
+        <v>51447</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03693899863353049</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02646663192509256</v>
+        <v>0.02636175143554532</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04952416176450599</v>
+        <v>0.04924046897980876</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>94</v>
@@ -8866,19 +8866,19 @@
         <v>59726</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>48853</v>
+        <v>48782</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>73540</v>
+        <v>72855</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.05719844809527833</v>
+        <v>0.05719844809527832</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04678517463909324</v>
+        <v>0.04671748865892079</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07042730521105695</v>
+        <v>0.06977156495374152</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>135</v>
@@ -8887,19 +8887,19 @@
         <v>98320</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>82679</v>
+        <v>82992</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>116382</v>
+        <v>116632</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.04706575062292665</v>
+        <v>0.04706575062292664</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03957816174237035</v>
+        <v>0.03972796204305983</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05571172666372123</v>
+        <v>0.05583157143142168</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>22055</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13754</v>
+        <v>14296</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>32677</v>
+        <v>32589</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02110939724016207</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01316395899308346</v>
+        <v>0.01368338725050974</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03127542542923657</v>
+        <v>0.03119186841315026</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>47</v>
@@ -8937,19 +8937,19 @@
         <v>27674</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>20983</v>
+        <v>20257</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>36716</v>
+        <v>36173</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02650301854930453</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.020094515465277</v>
+        <v>0.01939996545624555</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03516230990067504</v>
+        <v>0.03464208707817235</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>71</v>
@@ -8958,19 +8958,19 @@
         <v>49729</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>36891</v>
+        <v>38079</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>62345</v>
+        <v>63770</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02380541646938824</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01765949599057046</v>
+        <v>0.0182283588726985</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02984469347424466</v>
+        <v>0.03052664414540627</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>379062</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>342988</v>
+        <v>342908</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>419633</v>
+        <v>419165</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.3628059936639182</v>
+        <v>0.3628059936639181</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3282793670017722</v>
+        <v>0.328203129482496</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4016379012052861</v>
+        <v>0.4011895168085546</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>285</v>
@@ -9008,19 +9008,19 @@
         <v>279598</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>251993</v>
+        <v>252399</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>309925</v>
+        <v>312619</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2677648073048708</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2413280524126431</v>
+        <v>0.2417171635289498</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2968081297306152</v>
+        <v>0.299388888000677</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>559</v>
@@ -9029,19 +9029,19 @@
         <v>658659</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>611467</v>
+        <v>607423</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>702391</v>
+        <v>706236</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3152993462175853</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2927084895163978</v>
+        <v>0.2907724004814825</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3362337964505051</v>
+        <v>0.3380742795725327</v>
       </c>
     </row>
     <row r="20">
@@ -9058,19 +9058,19 @@
         <v>557700</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>521302</v>
+        <v>519022</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>591916</v>
+        <v>594130</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.5337841482976106</v>
+        <v>0.5337841482976105</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4989470728290777</v>
+        <v>0.4967648835065909</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5665321260570109</v>
+        <v>0.5686518326747318</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>870</v>
@@ -9079,19 +9079,19 @@
         <v>561597</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>530549</v>
+        <v>532154</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>590284</v>
+        <v>590726</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5378295308743659</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5080956441393948</v>
+        <v>0.5096319142494877</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5653019629550802</v>
+        <v>0.5657253054599245</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1486</v>
@@ -9100,19 +9100,19 @@
         <v>1119298</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1074497</v>
+        <v>1070513</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1165688</v>
+        <v>1167122</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5358062459925343</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5143603725698412</v>
+        <v>0.5124530976229736</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5580132783906554</v>
+        <v>0.5586996632698655</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>44063</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>34501</v>
+        <v>33119</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>57693</v>
+        <v>56108</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.04531435994192901</v>
+        <v>0.045314359941929</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03548027188261593</v>
+        <v>0.03405974662335742</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05933040627198132</v>
+        <v>0.05770129837679883</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>175</v>
@@ -9225,19 +9225,19 @@
         <v>92380</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>79470</v>
+        <v>79428</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>107580</v>
+        <v>107060</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1019922156855815</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08773880073577987</v>
+        <v>0.08769177895626622</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1187728253790598</v>
+        <v>0.118199720897246</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>235</v>
@@ -9246,19 +9246,19 @@
         <v>136444</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>120967</v>
+        <v>120480</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>157279</v>
+        <v>155577</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.07264785039359505</v>
+        <v>0.07264785039359503</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06440713584796864</v>
+        <v>0.06414821829117276</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08374117170578059</v>
+        <v>0.08283491371174934</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>45601</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>34126</v>
+        <v>34570</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>59516</v>
+        <v>61617</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04689514402637571</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03509495540541393</v>
+        <v>0.03555118805048427</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06120562123926184</v>
+        <v>0.0633662965000827</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>56</v>
@@ -9296,19 +9296,19 @@
         <v>35845</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>27554</v>
+        <v>27724</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>45135</v>
+        <v>46288</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03957401517724561</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03042106883533999</v>
+        <v>0.03060905283553962</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04983110021748303</v>
+        <v>0.05110361926524133</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>102</v>
@@ -9317,19 +9317,19 @@
         <v>81445</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>65095</v>
+        <v>65602</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>99643</v>
+        <v>96696</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04336445284429927</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03465879975570993</v>
+        <v>0.03492900819173151</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05305348620129256</v>
+        <v>0.05148476124173745</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>25074</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16834</v>
+        <v>16868</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>36866</v>
+        <v>35226</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02578585178246499</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01731211894822161</v>
+        <v>0.01734705147150851</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03791259305506563</v>
+        <v>0.03622584458216827</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>55</v>
@@ -9367,19 +9367,19 @@
         <v>34796</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>25782</v>
+        <v>26580</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>46204</v>
+        <v>46242</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03841591789258825</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0284643787826997</v>
+        <v>0.02934588823759266</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05101089765882718</v>
+        <v>0.05105295740393378</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>82</v>
@@ -9388,19 +9388,19 @@
         <v>59870</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>46241</v>
+        <v>48044</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>74190</v>
+        <v>75160</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03187683364646444</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02462061136002613</v>
+        <v>0.02558061792551476</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0395014407823885</v>
+        <v>0.0400178899317927</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>342819</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>307882</v>
+        <v>307823</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>378596</v>
+        <v>378186</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3525517022462706</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3166224835246216</v>
+        <v>0.3165623813653062</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.389344321207168</v>
+        <v>0.3889227448770683</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>244</v>
@@ -9438,19 +9438,19 @@
         <v>246517</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>220919</v>
+        <v>218800</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>278305</v>
+        <v>275605</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2721659219258001</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2439051436530834</v>
+        <v>0.2415649874453336</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3072619950321197</v>
+        <v>0.3042803022043142</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>482</v>
@@ -9459,19 +9459,19 @@
         <v>589336</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>543561</v>
+        <v>538739</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>637496</v>
+        <v>635905</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3137848164844468</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2894123475360353</v>
+        <v>0.2868451309856318</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3394271396600486</v>
+        <v>0.3385797095926671</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>514837</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>480611</v>
+        <v>480453</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>551264</v>
+        <v>546377</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5294529420029598</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4942550945495698</v>
+        <v>0.4940928722223223</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5669146927897636</v>
+        <v>0.561888749453365</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>786</v>
@@ -9509,19 +9509,19 @@
         <v>496222</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>469581</v>
+        <v>468306</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>522746</v>
+        <v>521841</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5478519293187847</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5184389555806704</v>
+        <v>0.5170310945077241</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5771363706174671</v>
+        <v>0.5761366149680374</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1358</v>
@@ -9530,19 +9530,19 @@
         <v>1011059</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>967611</v>
+        <v>966494</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1054750</v>
+        <v>1056887</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5383260466311944</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5151925830362987</v>
+        <v>0.5145978405305865</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5615884688127141</v>
+        <v>0.5627262454761155</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>157239</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>136820</v>
+        <v>136192</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>177617</v>
+        <v>178140</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.04526092031013823</v>
+        <v>0.04526092031013822</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03938356730798847</v>
+        <v>0.03920256882297306</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05112674541466387</v>
+        <v>0.05127722013571413</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>929</v>
@@ -9655,19 +9655,19 @@
         <v>504512</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>471351</v>
+        <v>472962</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>535561</v>
+        <v>537513</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1368970636462693</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1278988486801172</v>
+        <v>0.1283359232453703</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1453219333636955</v>
+        <v>0.1458516174042127</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1155</v>
@@ -9676,19 +9676,19 @@
         <v>661751</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>621679</v>
+        <v>624552</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>699269</v>
+        <v>701360</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.09243120802383467</v>
+        <v>0.09243120802383469</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08683408662611784</v>
+        <v>0.08723542274458965</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09767164069890429</v>
+        <v>0.09796365091816503</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>140710</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>120568</v>
+        <v>120707</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>164978</v>
+        <v>165672</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04050323679573534</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03470538209361592</v>
+        <v>0.03474542086302817</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04748872044845037</v>
+        <v>0.04768832986296884</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>321</v>
@@ -9726,19 +9726,19 @@
         <v>208991</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>186049</v>
+        <v>185615</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>232300</v>
+        <v>232915</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05670880951073635</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05048353098347814</v>
+        <v>0.05036588694775446</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06303344520467845</v>
+        <v>0.06320042949835761</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>469</v>
@@ -9747,19 +9747,19 @@
         <v>349702</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>318914</v>
+        <v>319906</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>380829</v>
+        <v>383582</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04884515844042796</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04454481832522113</v>
+        <v>0.04468338602384866</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05319296365568701</v>
+        <v>0.05357750925740541</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>99232</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>81217</v>
+        <v>80686</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>119594</v>
+        <v>120988</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.02856375660367427</v>
+        <v>0.02856375660367428</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02337828219036801</v>
+        <v>0.02322535480536469</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03442495463495593</v>
+        <v>0.03482630571573229</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>200</v>
@@ -9797,19 +9797,19 @@
         <v>134059</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>117300</v>
+        <v>116537</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>154601</v>
+        <v>153860</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03637615036435181</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03182879617193514</v>
+        <v>0.03162171457106674</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04195023465585346</v>
+        <v>0.04174910023135045</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>304</v>
@@ -9818,19 +9818,19 @@
         <v>233290</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>208070</v>
+        <v>206119</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>261891</v>
+        <v>260057</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03258523598951118</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02906252997917061</v>
+        <v>0.02879008527991345</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03658000648183912</v>
+        <v>0.03632384219918052</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>1311746</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1247101</v>
+        <v>1240379</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1377076</v>
+        <v>1383037</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3775842861077165</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.358976337871504</v>
+        <v>0.3570413425575877</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3963895369710824</v>
+        <v>0.3981053953349353</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1004</v>
@@ -9868,19 +9868,19 @@
         <v>999225</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>939959</v>
+        <v>944133</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1055995</v>
+        <v>1060628</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2711351430423278</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.255053335720153</v>
+        <v>0.2561860028160811</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2865394261934301</v>
+        <v>0.2877964811815344</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1935</v>
@@ -9889,19 +9889,19 @@
         <v>2310972</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2216691</v>
+        <v>2225527</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2399046</v>
+        <v>2404197</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.322788912552411</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3096200945239795</v>
+        <v>0.3108543073295936</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3350907839207439</v>
+        <v>0.335810362494218</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>1765121</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1704415</v>
+        <v>1698953</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1831124</v>
+        <v>1834398</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5080878001827355</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4906134924743912</v>
+        <v>0.4890412436473024</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5270866963551334</v>
+        <v>0.5280288900291318</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2833</v>
@@ -9939,19 +9939,19 @@
         <v>1838553</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1785868</v>
+        <v>1786860</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1888668</v>
+        <v>1897699</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.4988828334363147</v>
+        <v>0.4988828334363148</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4845867795752432</v>
+        <v>0.4848559634107166</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5124812690974968</v>
+        <v>0.5149317978503992</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4757</v>
@@ -9960,19 +9960,19 @@
         <v>3603675</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3513941</v>
+        <v>3517884</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3686021</v>
+        <v>3688752</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5033494849938152</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4908156925468205</v>
+        <v>0.491366438989253</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.514851254303952</v>
+        <v>0.5152326980447776</v>
       </c>
     </row>
     <row r="33">
